--- a/UnityTest2/Assets/Data/Data.xlsx
+++ b/UnityTest2/Assets/Data/Data.xlsx
@@ -1,54 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F442A5-10B4-4ECF-B470-1C781BA3C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{8A5AA3E7-1383-4035-80F6-3C39538227BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="2" r:id="rId2"/>
+    <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>BG_Room2</t>
+  </si>
+  <si>
+    <t>전 바보가 된 레이나도 좋다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>벤리아나</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>바보친구</t>
+    </r>
+  </si>
+  <si>
+    <t>Benriana_00</t>
+  </si>
+  <si>
+    <t>벤리아나_기본표정</t>
+  </si>
+  <si>
+    <t>벤리아나</t>
+  </si>
+  <si>
+    <t>Benriana_01</t>
+  </si>
+  <si>
+    <t>벤리아나_웃는표정</t>
+  </si>
+  <si>
+    <t>Benriana_02</t>
+  </si>
+  <si>
+    <t>벤리아나_화난표정</t>
+  </si>
+  <si>
+    <t>레이나</t>
+  </si>
+  <si>
+    <t>바보</t>
+  </si>
+  <si>
+    <t>Reina_00</t>
+  </si>
+  <si>
+    <t>레이나_기본표정</t>
+  </si>
+  <si>
+    <t>Reina_01</t>
+  </si>
+  <si>
+    <t>레이나_웃는표정</t>
+  </si>
+  <si>
+    <t>Reina_02</t>
+  </si>
+  <si>
+    <t>레이나_화난표정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -57,6 +181,28 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,10 +223,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -99,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,42 +269,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -174,12 +334,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -209,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,13 +464,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -285,6 +472,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -349,44 +543,252 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27167BCD-E5C0-40C4-9738-3113F5B931F6}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E299A-CED9-44AD-8D01-63EBEEA28E30}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10102</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B8AC13-1955-46CC-ACB2-30FFA80A8928}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10201</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>10202</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10203</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>